--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1966.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1966.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.021*"import" + 0.017*"exchange" + 0.014*"may" + 0.013*"bank" + 0.012*"payment" + 0.012*"rom" + 0.012*"account" + 0.012*"country" + 0.012*"export" + 0.011*"currency"</t>
-  </si>
-  <si>
-    <t>0.003*"import" + 0.002*"exchange" + 0.002*"account" + 0.002*"rom" + 0.002*"export" + 0.001*"may" + 0.001*"payment" + 0.001*"country" + 0.001*"currency" + 0.001*"license"</t>
-  </si>
-  <si>
-    <t>0.003*"import" + 0.002*"may" + 0.001*"exchange" + 0.001*"payment" + 0.001*"currency" + 0.001*"country" + 0.001*"account" + 0.001*"bank" + 0.001*"export" + 0.001*"rom"</t>
-  </si>
-  <si>
-    <t>0.007*"exchange" + 0.007*"import" + 0.005*"account" + 0.005*"export" + 0.005*"rom" + 0.005*"may" + 0.004*"currency" + 0.004*"bank" + 0.004*"license" + 0.004*"payment"</t>
-  </si>
-  <si>
-    <t>0.004*"import" + 0.002*"may" + 0.002*"exchange" + 0.002*"export" + 0.002*"account" + 0.002*"currency" + 0.002*"bank" + 0.002*"country" + 0.002*"license" + 0.002*"payment"</t>
+    <t>0.044*"per" + 0.032*"cent" + 0.026*"may" + 0.017*"u" + 0.017*"foreign" + 0.015*"ign" + 0.014*"amount" + 0.014*"capital" + 0.014*"investment" + 0.013*"abroad"</t>
+  </si>
+  <si>
+    <t>0.038*"account" + 0.038*"currency" + 0.037*"area" + 0.036*"country" + 0.034*"sterling" + 0.025*"resident" + 0.024*"may" + 0.021*"payment" + 0.014*"make" + 0.014*"outside"</t>
+  </si>
+  <si>
+    <t>0.061*"exchange" + 0.045*"bank" + 0.024*"payment" + 0.023*"rate" + 0.022*"control" + 0.022*"license" + 0.021*"require" + 0.021*"import" + 0.017*"invisibles" + 0.015*"foreign"</t>
+  </si>
+  <si>
+    <t>0.074*"import" + 0.027*"good" + 0.026*"export" + 0.020*"certain" + 0.014*"rom" + 0.011*"list" + 0.011*"commodity" + 0.011*"license" + 0.010*"country" + 0.009*"ing"</t>
+  </si>
+  <si>
+    <t>0.061*"fund" + 0.044*"monetary" + 0.042*"international" + 0.016*"month" + 0.016*"year" + 0.013*"must" + 0.012*"within" + 0.011*"however" + 0.010*"deposit" + 0.009*"date"</t>
   </si>
 </sst>
 </file>
